--- a/weekoverzichten/Stage - Week 1.xlsx
+++ b/weekoverzichten/Stage - Week 1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SiVl\Dropbox\School\Stage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SiVl\Documents\GitHub\sigurd3k.github.io\weekoverzichten\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>Maandag</t>
   </si>
@@ -62,9 +63,6 @@
     <t>Onderzoek naar nodige hardware</t>
   </si>
   <si>
-    <t>Installeren van tools in linux (Pip, Theano, Numpy, Jupyter</t>
-  </si>
-  <si>
     <t>Oplossen van configuratieproblemen</t>
   </si>
   <si>
@@ -81,13 +79,40 @@
   </si>
   <si>
     <t>Bijleren over machine learning</t>
+  </si>
+  <si>
+    <t>Installeren van tools in linux (Pip, Theano, Numpy, Jupyter)</t>
+  </si>
+  <si>
+    <t>Dag</t>
+  </si>
+  <si>
+    <t>Datum</t>
+  </si>
+  <si>
+    <t>Klant</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Taken</t>
+  </si>
+  <si>
+    <t>Uren</t>
+  </si>
+  <si>
+    <t>Opmerkingen</t>
+  </si>
+  <si>
+    <t>Ordina</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +128,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212121"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -112,7 +164,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -120,14 +172,143 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,7 +591,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -446,13 +629,13 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -463,10 +646,10 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -477,7 +660,7 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -485,11 +668,186 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
-      </c>
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9">
+        <v>42783</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9">
+        <v>42784</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="12"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="9">
+        <v>42785</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="9">
+        <v>42786</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="9">
+        <v>42787</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="17"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="21"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="21"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
